--- a/TESTFOLDER/test.xlsx
+++ b/TESTFOLDER/test.xlsx
@@ -29,22 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -70,14 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -443,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,30 +447,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Orca_Opt</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Orca_dihedral</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Gaussian</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Gromax</t>
         </is>
@@ -492,24 +485,29 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Molekule1</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -517,24 +515,29 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Molekule1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -542,24 +545,29 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Molekule2</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,24 +575,29 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Molekule1</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -592,24 +605,29 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Molekule2</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -617,19 +635,21 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Molekule3</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -637,304 +657,7 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>
